--- a/tumash_ALG2_sem_portfolio/data/tabulka.xlsx
+++ b/tumash_ALG2_sem_portfolio/data/tabulka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladr\OneDrive\Desktop\docs\Java\java.tul\tumash_ALG2_sem_portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB222772-85A5-4EB7-A9D1-0DB71D7763E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF3B634-4E0E-4177-ABCD-C07261741DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16380" yWindow="1275" windowWidth="12345" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25185" yWindow="2625" windowWidth="20250" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trades" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="26">
   <si>
     <t>Coin</t>
   </si>
@@ -68,39 +68,15 @@
     <t>BitMEX</t>
   </si>
   <si>
-    <t xml:space="preserve">BTC </t>
-  </si>
-  <si>
     <t>LONG</t>
   </si>
   <si>
-    <t xml:space="preserve">XRP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EOS </t>
-  </si>
-  <si>
     <t>LOOM</t>
   </si>
   <si>
-    <t xml:space="preserve">ATOM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH </t>
-  </si>
-  <si>
     <t>BTC</t>
   </si>
   <si>
-    <t xml:space="preserve">ZEC </t>
-  </si>
-  <si>
     <t>VIA</t>
   </si>
   <si>
@@ -111,6 +87,27 @@
   </si>
   <si>
     <t>BRD</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>XMR</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>ZEC</t>
   </si>
 </sst>
 </file>
@@ -488,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -528,10 +525,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
         <v>43922</v>
@@ -588,7 +585,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -648,10 +645,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>43924</v>
@@ -678,10 +675,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>43924</v>
@@ -708,7 +705,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -738,7 +735,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -768,10 +765,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>43925</v>
@@ -798,10 +795,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>43925</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -858,7 +855,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -888,7 +885,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -918,7 +915,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -978,7 +975,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -1008,7 +1005,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -1068,7 +1065,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -1098,10 +1095,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>43932</v>
@@ -1128,7 +1125,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
@@ -1158,7 +1155,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -1218,10 +1215,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C25" s="3">
         <v>43938</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
@@ -1278,10 +1275,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C27" s="3">
         <v>43941</v>
@@ -1308,10 +1305,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3">
         <v>43944</v>
@@ -1338,10 +1335,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3">
         <v>43945</v>
@@ -1368,10 +1365,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3">
         <v>43945</v>
@@ -1398,10 +1395,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>43945</v>
@@ -1428,10 +1425,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
         <v>43947</v>
